--- a/wave2_public_r_.xlsx
+++ b/wave2_public_r_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/benjamin_imsa_student_kuleuven_be/Documents/SIGMA internship/Codebook/Interactive-Codebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_81377CC88F79A8D366075C52F37BD2721AC90FCC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F876CD8E-10BE-3649-9520-0F9B7C4F0E80}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_81377CC88F79A8D366075C52F37BD2721AC90FCC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC225811-9F66-3747-8178-27ED27F9D60C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7734" uniqueCount="2304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7768" uniqueCount="2338">
   <si>
     <t>Variable name</t>
   </si>
@@ -6932,6 +6932,108 @@
   </si>
   <si>
     <t>If something bad has happened: I feel that basically the cause lies with others</t>
+  </si>
+  <si>
+    <t>There is a special person who is around when I am in need.</t>
+  </si>
+  <si>
+    <t>There is a special person with whom I can share both my joy and my worries/sorrow.</t>
+  </si>
+  <si>
+    <t>My family really tries to help me.</t>
+  </si>
+  <si>
+    <t>I get the emotional help and support I need from my family.</t>
+  </si>
+  <si>
+    <t>I have a special person who is a real source of comfort for me.</t>
+  </si>
+  <si>
+    <t>My friends really try to help me.</t>
+  </si>
+  <si>
+    <t>I can count on my friends when things go wrong.</t>
+  </si>
+  <si>
+    <t>I can talk about my problems with my family.</t>
+  </si>
+  <si>
+    <t>I have friends with whom I can share my joys and sorrows.</t>
+  </si>
+  <si>
+    <t>There is a special person in my life who cares about my feelings.</t>
+  </si>
+  <si>
+    <t>My family is willing to help me make decisions.</t>
+  </si>
+  <si>
+    <t>I can talk about my problems with my friends.</t>
+  </si>
+  <si>
+    <t>I don't like telling my father how I feel down inside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm worried that my father does not really love me. </t>
+  </si>
+  <si>
+    <t>I'm worried my father does not like me as much as I like him.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's not easy for me to tell my father a lot about myself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I prefer not to get too close to my father. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I show my father that I love him, I'm afraid he won't love me the same way. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I usually talk to my father about my problems and my worries. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I 'm feeling down, it helps to talk to my father. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I tell my father nearly everything. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I sometimes think my father doesn't like me anymore for no reason. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm afraid that I want to feel too close to my father and he does not like it. </t>
+  </si>
+  <si>
+    <t>I don't like telling my mother how I feel down inside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm worried that my mother does not really love me. </t>
+  </si>
+  <si>
+    <t>I'm worried my mother does not like me as much as I like her.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's not easy for me to tell my mother a lot about myself. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I prefer not to get too close to my mother. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I show my mother that I love her, I'm afraid she won't love me the same way. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I usually talk to my mother about my problems and my worries. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When I 'm feeling down, it helps to talk to my mother. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I tell my mother nearly everything. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I sometimes think my mother doesn't like me anymore for no reason. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm afraid that I want to feel too close to my mother and she does not like it. </t>
   </si>
 </sst>
 </file>
@@ -6995,6 +7097,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7320,11 +7426,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
-      <selection activeCell="K589" sqref="K589"/>
+    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
+      <selection activeCell="I392" sqref="I392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -17414,6 +17523,9 @@
       <c r="H378" t="s">
         <v>902</v>
       </c>
+      <c r="I378" t="s">
+        <v>2316</v>
+      </c>
       <c r="O378" t="s">
         <v>25</v>
       </c>
@@ -17460,6 +17572,9 @@
       <c r="H380" t="s">
         <v>906</v>
       </c>
+      <c r="I380" t="s">
+        <v>2317</v>
+      </c>
       <c r="O380" t="s">
         <v>25</v>
       </c>
@@ -17483,6 +17598,9 @@
       <c r="H381" t="s">
         <v>908</v>
       </c>
+      <c r="I381" t="s">
+        <v>2318</v>
+      </c>
       <c r="O381" t="s">
         <v>25</v>
       </c>
@@ -17506,6 +17624,9 @@
       <c r="H382" t="s">
         <v>910</v>
       </c>
+      <c r="I382" t="s">
+        <v>2319</v>
+      </c>
       <c r="O382" t="s">
         <v>25</v>
       </c>
@@ -17529,6 +17650,9 @@
       <c r="H383" t="s">
         <v>912</v>
       </c>
+      <c r="I383" t="s">
+        <v>2320</v>
+      </c>
       <c r="O383" t="s">
         <v>25</v>
       </c>
@@ -17552,6 +17676,9 @@
       <c r="H384" t="s">
         <v>914</v>
       </c>
+      <c r="I384" t="s">
+        <v>2321</v>
+      </c>
       <c r="O384" t="s">
         <v>25</v>
       </c>
@@ -17575,6 +17702,9 @@
       <c r="H385" t="s">
         <v>916</v>
       </c>
+      <c r="I385" t="s">
+        <v>2322</v>
+      </c>
       <c r="O385" t="s">
         <v>25</v>
       </c>
@@ -17598,6 +17728,9 @@
       <c r="H386" t="s">
         <v>918</v>
       </c>
+      <c r="I386" t="s">
+        <v>2323</v>
+      </c>
       <c r="O386" t="s">
         <v>25</v>
       </c>
@@ -17621,6 +17754,9 @@
       <c r="H387" t="s">
         <v>920</v>
       </c>
+      <c r="I387" t="s">
+        <v>2324</v>
+      </c>
       <c r="O387" t="s">
         <v>25</v>
       </c>
@@ -17644,6 +17780,9 @@
       <c r="H388" t="s">
         <v>922</v>
       </c>
+      <c r="I388" t="s">
+        <v>2325</v>
+      </c>
       <c r="O388" t="s">
         <v>25</v>
       </c>
@@ -17667,6 +17806,9 @@
       <c r="H389" t="s">
         <v>924</v>
       </c>
+      <c r="I389" t="s">
+        <v>2326</v>
+      </c>
       <c r="O389" t="s">
         <v>25</v>
       </c>
@@ -17733,6 +17875,9 @@
       <c r="H392" t="s">
         <v>929</v>
       </c>
+      <c r="I392" t="s">
+        <v>2327</v>
+      </c>
       <c r="O392" t="s">
         <v>25</v>
       </c>
@@ -17779,6 +17924,9 @@
       <c r="H394" t="s">
         <v>933</v>
       </c>
+      <c r="I394" t="s">
+        <v>2328</v>
+      </c>
       <c r="O394" t="s">
         <v>25</v>
       </c>
@@ -17802,6 +17950,9 @@
       <c r="H395" t="s">
         <v>935</v>
       </c>
+      <c r="I395" t="s">
+        <v>2329</v>
+      </c>
       <c r="O395" t="s">
         <v>25</v>
       </c>
@@ -17825,6 +17976,9 @@
       <c r="H396" t="s">
         <v>937</v>
       </c>
+      <c r="I396" t="s">
+        <v>2330</v>
+      </c>
       <c r="O396" t="s">
         <v>25</v>
       </c>
@@ -17848,6 +18002,9 @@
       <c r="H397" t="s">
         <v>939</v>
       </c>
+      <c r="I397" t="s">
+        <v>2331</v>
+      </c>
       <c r="O397" t="s">
         <v>25</v>
       </c>
@@ -17871,6 +18028,9 @@
       <c r="H398" t="s">
         <v>941</v>
       </c>
+      <c r="I398" t="s">
+        <v>2332</v>
+      </c>
       <c r="O398" t="s">
         <v>25</v>
       </c>
@@ -17894,6 +18054,9 @@
       <c r="H399" t="s">
         <v>943</v>
       </c>
+      <c r="I399" t="s">
+        <v>2333</v>
+      </c>
       <c r="O399" t="s">
         <v>25</v>
       </c>
@@ -17917,6 +18080,9 @@
       <c r="H400" t="s">
         <v>945</v>
       </c>
+      <c r="I400" t="s">
+        <v>2334</v>
+      </c>
       <c r="O400" t="s">
         <v>25</v>
       </c>
@@ -17940,6 +18106,9 @@
       <c r="H401" t="s">
         <v>947</v>
       </c>
+      <c r="I401" t="s">
+        <v>2335</v>
+      </c>
       <c r="O401" t="s">
         <v>25</v>
       </c>
@@ -17963,6 +18132,9 @@
       <c r="H402" t="s">
         <v>949</v>
       </c>
+      <c r="I402" t="s">
+        <v>2336</v>
+      </c>
       <c r="O402" t="s">
         <v>25</v>
       </c>
@@ -17986,6 +18158,9 @@
       <c r="H403" t="s">
         <v>951</v>
       </c>
+      <c r="I403" t="s">
+        <v>2337</v>
+      </c>
       <c r="O403" t="s">
         <v>25</v>
       </c>
@@ -18012,6 +18187,9 @@
       <c r="H404" t="s">
         <v>955</v>
       </c>
+      <c r="I404" t="s">
+        <v>2304</v>
+      </c>
       <c r="O404" t="s">
         <v>60</v>
       </c>
@@ -18035,6 +18213,9 @@
       <c r="H405" t="s">
         <v>957</v>
       </c>
+      <c r="I405" t="s">
+        <v>2305</v>
+      </c>
       <c r="O405" t="s">
         <v>60</v>
       </c>
@@ -18058,6 +18239,9 @@
       <c r="H406" t="s">
         <v>959</v>
       </c>
+      <c r="I406" t="s">
+        <v>2306</v>
+      </c>
       <c r="O406" t="s">
         <v>60</v>
       </c>
@@ -18081,6 +18265,9 @@
       <c r="H407" t="s">
         <v>961</v>
       </c>
+      <c r="I407" t="s">
+        <v>2307</v>
+      </c>
       <c r="O407" t="s">
         <v>60</v>
       </c>
@@ -18104,6 +18291,9 @@
       <c r="H408" t="s">
         <v>963</v>
       </c>
+      <c r="I408" t="s">
+        <v>2308</v>
+      </c>
       <c r="O408" t="s">
         <v>60</v>
       </c>
@@ -18127,6 +18317,9 @@
       <c r="H409" t="s">
         <v>965</v>
       </c>
+      <c r="I409" t="s">
+        <v>2309</v>
+      </c>
       <c r="O409" t="s">
         <v>60</v>
       </c>
@@ -18150,6 +18343,9 @@
       <c r="H410" t="s">
         <v>967</v>
       </c>
+      <c r="I410" t="s">
+        <v>2310</v>
+      </c>
       <c r="O410" t="s">
         <v>60</v>
       </c>
@@ -18173,6 +18369,9 @@
       <c r="H411" t="s">
         <v>969</v>
       </c>
+      <c r="I411" t="s">
+        <v>2311</v>
+      </c>
       <c r="O411" t="s">
         <v>60</v>
       </c>
@@ -18196,6 +18395,9 @@
       <c r="H412" t="s">
         <v>971</v>
       </c>
+      <c r="I412" t="s">
+        <v>2312</v>
+      </c>
       <c r="O412" t="s">
         <v>60</v>
       </c>
@@ -18219,6 +18421,9 @@
       <c r="H413" t="s">
         <v>973</v>
       </c>
+      <c r="I413" t="s">
+        <v>2313</v>
+      </c>
       <c r="O413" t="s">
         <v>60</v>
       </c>
@@ -18242,6 +18447,9 @@
       <c r="H414" t="s">
         <v>975</v>
       </c>
+      <c r="I414" t="s">
+        <v>2314</v>
+      </c>
       <c r="O414" t="s">
         <v>60</v>
       </c>
@@ -18264,6 +18472,9 @@
       </c>
       <c r="H415" t="s">
         <v>977</v>
+      </c>
+      <c r="I415" t="s">
+        <v>2315</v>
       </c>
       <c r="O415" t="s">
         <v>60</v>
